--- a/ResultadoEleicoesDistritos/PORTALEGRE_SOUSEL.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_SOUSEL.xlsx
@@ -597,64 +597,64 @@
         <v>1157</v>
       </c>
       <c r="H2" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J2" t="n">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T2" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>761</v>
+        <v>713</v>
       </c>
       <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>732</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="X2" t="n">
-        <v>738</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
